--- a/medicine/Psychotrope/Comté-tolosan/Comté-tolosan.xlsx
+++ b/medicine/Psychotrope/Comté-tolosan/Comté-tolosan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Comt%C3%A9-tolosan</t>
+          <t>Comté-tolosan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le comté-tolosan, appelé vin de pays du comté tolosan jusqu'en 2009, est un vin français d'indication géographique protégée (correspondant à l'ancienne dénomination vins de pays) régionale produit sur l'ensemble du vignoble du Sud-Ouest de la France.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Comt%C3%A9-tolosan</t>
+          <t>Comté-tolosan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Comt%C3%A9-tolosan</t>
+          <t>Comté-tolosan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Zone géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est l'une des six IGP régionales de France. 
 : IGP Atlantique
@@ -546,14 +562,8 @@
 : IGP Comtés Rhodaniens
 : IGP Méditerranée (Comté de Grignan, Coteaux de Montélimar)
 : IGP Pays d’Oc
-: IGP Val de Loire (Allier, Cher, Indre, Indre-et-Loire, Loir-et-Cher, Loire-Atlantique, Loiret, Maine-et-Loire, Marches de Bretagne, Nièvre, Pays de Retz, Sarthe, Vendée, Vienne)[3]
-Ce label, spécifique au Sud-Ouest, englobe 12 départements et fournit des vins plutôt blancs sur la rive gauche de la Garonne et rouges et rosés sur la rive droite[4].
-Orographie
-Ce vaste vignoble est bordé par les massifs montagneux des Pyrénées au sud, du Massif central au nord et à l’est, et par l’Océan Atlantique à l’ouest. Il s'étend sur le bassin versant de l’Adour ainsi que le haut bassin de la Garonne[4].
-Géologie
-La plus grande partie du vignoble se retrouve sur des terrains sédimentaires tertiaires appartenant au bassin aquitain ainsi que sur des alluvions anciennes des terrasses quaternaires[4].
-Climat
-Ce terroir viticole jouit d'un climat de type océanique tempéré. Celui-ci est caractérisé par des hivers doux et pluvieux et des étés frais et relativement humides. Cette influence s’estompe vers l’est pour céder place à un climat plus méditerranéen avec des étés plus chauds et plus secs, tandis que les piémonts montagneux subissent des températures hivernales plus rigoureuses[4].
+: IGP Val de Loire (Allier, Cher, Indre, Indre-et-Loire, Loir-et-Cher, Loire-Atlantique, Loiret, Maine-et-Loire, Marches de Bretagne, Nièvre, Pays de Retz, Sarthe, Vendée, Vienne)
+Ce label, spécifique au Sud-Ouest, englobe 12 départements et fournit des vins plutôt blancs sur la rive gauche de la Garonne et rouges et rosés sur la rive droite.
 </t>
         </is>
       </c>
@@ -564,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Comt%C3%A9-tolosan</t>
+          <t>Comté-tolosan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,17 +589,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vignoble</t>
+          <t>Zone géographique</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Présentation
-Pour avoir droit à la dénomination Vin de pays du comté Tolosan, les vins doivent être issus de vendanges récoltées dans les départements suivants :
-Ariège, Aveyron, Cantal, Haute-Garonne, Gers, Landes, Lot, Lot-et-Garonne, Pyrénées-Atlantiques, Hautes-Pyrénées, Tarn et Tarn-et-Garonne.
-Encépagement
-Les vins rouges et rosés assemblent : malbec, Cabernet franc, Cabernet-sauvignon, Cot, Duras, Gamay, Merlot, Négrette[4].
-Les vins blancs sont élaborés à base de Chardonnay, Chenin, Colombard, Len de l’El, Gros et Petit Manseng, Mauzac et Muscadelle[4].
+          <t>Orographie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce vaste vignoble est bordé par les massifs montagneux des Pyrénées au sud, du Massif central au nord et à l’est, et par l’Océan Atlantique à l’ouest. Il s'étend sur le bassin versant de l’Adour ainsi que le haut bassin de la Garonne.
 </t>
         </is>
       </c>
@@ -600,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Comt%C3%A9-tolosan</t>
+          <t>Comté-tolosan</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,12 +626,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Type de vin</t>
+          <t>Zone géographique</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ce label peut être complétée par les unités géographiques suivantes : Bigorre, Coteaux et Terrasses de Montauban, Pyrénées Atlantiques, Tarn et Garonne, Haute-Garonne et Cantal[4].
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plus grande partie du vignoble se retrouve sur des terrains sédimentaires tertiaires appartenant au bassin aquitain ainsi que sur des alluvions anciennes des terrasses quaternaires.
 </t>
         </is>
       </c>
@@ -631,7 +648,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Comt%C3%A9-tolosan</t>
+          <t>Comté-tolosan</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -646,10 +663,158 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Zone géographique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Climat</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce terroir viticole jouit d'un climat de type océanique tempéré. Celui-ci est caractérisé par des hivers doux et pluvieux et des étés frais et relativement humides. Cette influence s’estompe vers l’est pour céder place à un climat plus méditerranéen avec des étés plus chauds et plus secs, tandis que les piémonts montagneux subissent des températures hivernales plus rigoureuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Comté-tolosan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Comt%C3%A9-tolosan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour avoir droit à la dénomination Vin de pays du comté Tolosan, les vins doivent être issus de vendanges récoltées dans les départements suivants :
+Ariège, Aveyron, Cantal, Haute-Garonne, Gers, Landes, Lot, Lot-et-Garonne, Pyrénées-Atlantiques, Hautes-Pyrénées, Tarn et Tarn-et-Garonne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Comté-tolosan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Comt%C3%A9-tolosan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins rouges et rosés assemblent : malbec, Cabernet franc, Cabernet-sauvignon, Cot, Duras, Gamay, Merlot, Négrette.
+Les vins blancs sont élaborés à base de Chardonnay, Chenin, Colombard, Len de l’El, Gros et Petit Manseng, Mauzac et Muscadelle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Comté-tolosan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Comt%C3%A9-tolosan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Type de vin</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce label peut être complétée par les unités géographiques suivantes : Bigorre, Coteaux et Terrasses de Montauban, Pyrénées Atlantiques, Tarn et Garonne, Haute-Garonne et Cantal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Comté-tolosan</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Comt%C3%A9-tolosan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
